--- a/data/trans_dic/P19-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P19-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>27,27; 36,5</t>
+          <t>27,26; 36,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>30,55; 40,38</t>
+          <t>30,63; 40,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>29,97; 39,53</t>
+          <t>30,42; 39,43</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>33,09; 42,24</t>
+          <t>32,59; 41,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>35,42; 46,69</t>
+          <t>35,78; 46,34</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>32,65; 44,24</t>
+          <t>32,39; 43,76</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>36,81; 47,08</t>
+          <t>36,55; 47,29</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>41,7; 50,01</t>
+          <t>42,05; 49,93</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>32,1; 38,64</t>
+          <t>32,19; 39,03</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>32,82; 40,1</t>
+          <t>32,56; 40,11</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>34,42; 41,87</t>
+          <t>34,5; 41,77</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>38,35; 44,45</t>
+          <t>38,08; 44,3</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>26,12; 36,31</t>
+          <t>26,06; 36,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>28,41; 37,98</t>
+          <t>28,42; 38,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>27,17; 37,49</t>
+          <t>27,39; 36,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>26,29; 35,21</t>
+          <t>26,14; 35,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>34,31; 44,85</t>
+          <t>35,27; 45,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>35,08; 46,45</t>
+          <t>34,54; 46,15</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>36,8; 47,29</t>
+          <t>37,33; 47,6</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>38,16; 47,14</t>
+          <t>38,16; 46,67</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>32,63; 39,59</t>
+          <t>31,86; 39,31</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>32,49; 40,27</t>
+          <t>32,99; 40,54</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>33,31; 41,08</t>
+          <t>33,73; 40,39</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>32,9; 39,34</t>
+          <t>32,97; 39,31</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>20,66; 28,18</t>
+          <t>21,17; 28,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>18,42; 24,91</t>
+          <t>18,23; 24,81</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>23,06; 30,79</t>
+          <t>23,19; 30,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,76; 32,54</t>
+          <t>6,58; 31,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>23,88; 38,71</t>
+          <t>23,6; 37,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>30,69; 42,65</t>
+          <t>31,09; 42,6</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>27,09; 42,36</t>
+          <t>26,73; 42,4</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>25,76; 37,46</t>
+          <t>25,55; 36,93</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>22,62; 29,39</t>
+          <t>22,77; 29,12</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>22,71; 29,15</t>
+          <t>22,72; 28,76</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>24,98; 32,29</t>
+          <t>25,4; 32,58</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>9,9; 32,28</t>
+          <t>8,99; 32,07</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>20,25; 25,02</t>
+          <t>20,38; 24,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,81; 21,25</t>
+          <t>16,59; 21,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>23,64; 29,03</t>
+          <t>23,69; 29,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>19,2; 24,71</t>
+          <t>19,59; 25,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>28,74; 35,84</t>
+          <t>28,73; 36,26</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>24,45; 31,03</t>
+          <t>24,25; 31,07</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>31,8; 38,5</t>
+          <t>32,12; 38,58</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,54; 36,72</t>
+          <t>14,94; 36,85</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>24,21; 28,21</t>
+          <t>23,97; 28,12</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>20,64; 24,38</t>
+          <t>20,51; 24,48</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>28,08; 32,22</t>
+          <t>27,97; 32,29</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>18,02; 28,68</t>
+          <t>17,92; 28,68</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>14,64; 23,05</t>
+          <t>14,71; 22,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>17,04; 24,23</t>
+          <t>17,02; 24,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>20,78; 27,69</t>
+          <t>20,71; 27,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>15,1; 23,86</t>
+          <t>14,72; 23,89</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>26,5; 34,42</t>
+          <t>26,59; 34,23</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>25,37; 32,15</t>
+          <t>25,02; 32,18</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>27,43; 34,3</t>
+          <t>27,53; 34,27</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>18,55; 33,64</t>
+          <t>18,69; 33,26</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>22,89; 28,72</t>
+          <t>23,3; 28,92</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>22,77; 27,91</t>
+          <t>23,08; 28,02</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>25,34; 30,17</t>
+          <t>25,32; 30,18</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>18,41; 28,82</t>
+          <t>18,71; 28,79</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>19,49; 29,11</t>
+          <t>19,41; 28,88</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>28,08; 39,78</t>
+          <t>28,09; 39,23</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>35,57; 47,46</t>
+          <t>36,24; 47,78</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>21,97; 42,32</t>
+          <t>21,83; 41,81</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>23,99; 29,24</t>
+          <t>24,24; 28,95</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>23,94; 29,23</t>
+          <t>23,94; 29,5</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>28,66; 34,45</t>
+          <t>28,6; 34,64</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>19,95; 26,06</t>
+          <t>19,63; 25,63</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>23,98; 28,36</t>
+          <t>23,76; 27,99</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>25,6; 30,37</t>
+          <t>25,67; 31,04</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>31,07; 36,39</t>
+          <t>30,91; 36,3</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>21,58; 28,11</t>
+          <t>21,5; 28,45</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>23,47; 26,56</t>
+          <t>23,29; 26,38</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>23,08; 26,16</t>
+          <t>23,09; 26,19</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>27,33; 30,54</t>
+          <t>27,54; 30,67</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>19,46; 27,87</t>
+          <t>19,31; 27,82</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>29,82; 33,06</t>
+          <t>29,84; 33,05</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>28,88; 31,98</t>
+          <t>28,85; 32,03</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>32,95; 36,19</t>
+          <t>33,04; 36,12</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>24,34; 32,81</t>
+          <t>23,27; 32,67</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>27,08; 29,22</t>
+          <t>27,03; 29,27</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>26,48; 28,71</t>
+          <t>26,46; 28,67</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>30,67; 32,97</t>
+          <t>30,87; 33,08</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>24,24; 29,63</t>
+          <t>23,87; 29,86</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que en los últimos 6 meses han ido al dentista</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>151727</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>154559</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>149821</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>186086</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>125094</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>119317</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>145476</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>204772</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>276822</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>273876</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>295297</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>390857</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>129169; 171138</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>133939; 175084</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>130540; 169197</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>163081; 207322</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>109743; 142118</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>101865; 137599</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>126835; 164131</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>187878; 223111</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>251237; 304586</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>244778; 301521</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>267792; 324169</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>360676; 419685</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>257</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>381</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>114222</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>138479</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>120859</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>137084</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>148958</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>137218</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>156848</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>160586</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>263179</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>275696</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>277707</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>297670</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>95627; 133945</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>119019; 161453</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>103338; 139447</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>117572; 158410</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>131173; 167440</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>116421; 155548</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>138980; 177199</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>144640; 176901</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>235369; 290456</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>249354; 306435</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>252825; 302700</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>273287; 325792</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>132632</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>134293</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>139946</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>128788</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>51371</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>94436</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>57493</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>51956</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>184003</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>228730</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>197439</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>180744</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>114821; 154619</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>114286; 155524</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>121055; 161606</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>43825; 210025</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>39602; 63592</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>80862; 110803</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>44403; 70441</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>42492; 61406</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>161721; 206775</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>201517; 255095</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>174765; 224153</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>74837; 266946</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>496</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>409</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>565</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>627</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>278250</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>219482</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>301275</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>226032</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>230014</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>212761</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>291991</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>274117</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>508264</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>432243</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>593266</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>500148</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>252142; 308134</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>192304; 248215</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>272406; 334408</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>201655; 257566</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>205205; 259013</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>185892; 238212</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>265287; 318649</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>145383; 358658</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>467728; 548736</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>394977; 471477</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>552524; 637877</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>358894; 574264</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>305</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>357</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>65063</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>104858</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>149708</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>90095</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>172901</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>219007</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>226915</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>200251</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>237964</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>323865</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>376623</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>290345</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>51582; 79990</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>86912; 123938</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>128579; 173412</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>69463; 112724</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>151248; 194667</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>190570; 245035</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>203232; 252964</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>155283; 276328</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>214239; 265826</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>293594; 356417</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>344103; 410071</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>243717; 375047</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>407</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>364</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>436</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>70995</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>89951</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>119628</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>75466</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>330658</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>296117</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>341372</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>169111</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>401653</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>386068</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>461000</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>244577</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>57869; 86114</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>74956; 104699</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>104073; 137202</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>52279; 100096</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>302463; 361307</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>265593; 327307</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>309450; 374861</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>147326; 192320</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>367280; 432800</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>353301; 427248</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>423210; 497070</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>212866; 281594</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>801</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>795</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>917</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>813</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>1036</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>996</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>1162</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>1545</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1837</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>1791</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>2079</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>2358</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>812889</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>841622</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>981237</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>843550</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>1058996</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>1078857</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>1220094</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>1060792</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1871885</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>1920478</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>2201331</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>1904342</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>761446; 862448</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>789550; 895597</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>932389; 1038567</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>648106; 933704</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>1007923; 1116332</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>1023772; 1136633</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>1166928; 1275448</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>825161; 1158844</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1796375; 1945408</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>1843983; 1997615</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>2135411; 2288053</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>1647763; 2061292</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P19-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P19-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
